--- a/個人課表/D6543217.xlsx
+++ b/個人課表/D6543217.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\group_7\個人課表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D08671-567A-4940-98BC-94A3AED1FC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC80987C-F8D1-4371-8010-6E15F8A55C0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9790" yWindow="60" windowWidth="9710" windowHeight="9590" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="課表" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -133,16 +133,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -427,7 +445,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -435,7 +453,7 @@
     <col min="1" max="1" width="14.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,63 +470,118 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="4">
+        <v>1849</v>
+      </c>
+      <c r="F2" s="4">
+        <v>8194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="B3" s="4">
+        <v>1849</v>
+      </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="4">
+        <v>4731</v>
+      </c>
+      <c r="F3" s="4">
+        <v>8194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="B4" s="4">
+        <v>8963</v>
+      </c>
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D4" s="4">
+        <v>4731</v>
+      </c>
+      <c r="E4" s="4">
+        <v>5763</v>
+      </c>
+      <c r="F4" s="4">
+        <v>7436</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
+        <v>8963</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3827</v>
+      </c>
+      <c r="E5" s="4">
+        <v>5763</v>
+      </c>
+      <c r="F5" s="4">
+        <v>7436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="4">
+        <v>3827</v>
+      </c>
+      <c r="D6" s="4">
+        <v>7631</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D7" s="4">
+        <v>7631</v>
+      </c>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="4">
+        <v>5276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="4">
+        <v>5276</v>
+      </c>
+      <c r="F9" s="4">
+        <v>7641</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="3"/>
+      <c r="F10" s="4">
+        <v>7641</v>
+      </c>
     </row>
     <row r="11" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
